--- a/November'21/21.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/21.11.2021/Daily Sales Info.....xlsx
@@ -52509,8 +52509,8 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
